--- a/biology/Médecine/Centre_médical_MD_Anderson/Centre_médical_MD_Anderson.xlsx
+++ b/biology/Médecine/Centre_médical_MD_Anderson/Centre_médical_MD_Anderson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_MD_Anderson</t>
+          <t>Centre_médical_MD_Anderson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre médical MD Anderson (M. D. Anderson Cancer Center) est l'un des trois centres de lutte contre le cancer des États-Unis établis en 1971 par le National Cancer Act[1]. Il s'agit d'une institution consacrée au soin, à la recherche et à l'enseignement sur les cancers.
+Le centre médical MD Anderson (M. D. Anderson Cancer Center) est l'un des trois centres de lutte contre le cancer des États-Unis établis en 1971 par le National Cancer Act. Il s'agit d'une institution consacrée au soin, à la recherche et à l'enseignement sur les cancers.
 Aujourd’hui, le centre soigne 90 000 patients par an et emploie 17 000 personnes. Son actuel président est le Pr John Mendelshon connu pour avoir découvert le cétuximab (Erbitux).
 Le MD Anderson fait partie du Texas Medical Center de Houston, le plus grand centre médical du monde avec une quarantaine d’hôpitaux et d'universités comme l'hôpital Méthodiste, St. Luke, Memorial Hermann, le Texas Children Hospital, Baylor, la Rice et l'université du Texas.
 Il constitue la référence en matière de soin et de recherche en oncologie.
